--- a/validacion_diaria_wfm.xlsx
+++ b/validacion_diaria_wfm.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\laura\OneDrive\Escritorio\TFM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4e7f01a4cf0ecc30/Escritorio/TFM/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18536CF8-882C-4C30-8908-C49E7DB33D2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{18536CF8-882C-4C30-8908-C49E7DB33D2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{54811D53-E562-41F5-9ED5-211DBBB8CDCA}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -455,7 +455,7 @@
   <dimension ref="A1:G977"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E490" sqref="E490:E977"/>
+      <selection activeCell="F394" sqref="F394:F489"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9519,7 +9519,7 @@
         <v>69.75</v>
       </c>
       <c r="F394" s="5">
-        <v>29</v>
+        <v>110.53</v>
       </c>
       <c r="G394" t="s">
         <v>12</v>
@@ -9542,7 +9542,7 @@
         <v>562.47</v>
       </c>
       <c r="F395" s="5">
-        <v>621.32000000000005</v>
+        <v>721.79</v>
       </c>
       <c r="G395" t="s">
         <v>12</v>
@@ -9565,7 +9565,7 @@
         <v>568.55999999999995</v>
       </c>
       <c r="F396" s="5">
-        <v>604.79</v>
+        <v>716.18</v>
       </c>
       <c r="G396" t="s">
         <v>12</v>
@@ -9588,7 +9588,7 @@
         <v>541.95000000000005</v>
       </c>
       <c r="F397" s="5">
-        <v>569.15</v>
+        <v>667.05</v>
       </c>
       <c r="G397" t="s">
         <v>12</v>
@@ -9611,7 +9611,7 @@
         <v>479.5</v>
       </c>
       <c r="F398" s="5">
-        <v>503.14</v>
+        <v>634.12</v>
       </c>
       <c r="G398" t="s">
         <v>12</v>
@@ -9634,7 +9634,7 @@
         <v>98.68</v>
       </c>
       <c r="F399" s="5">
-        <v>103.98</v>
+        <v>126.58</v>
       </c>
       <c r="G399" t="s">
         <v>12</v>
@@ -9657,7 +9657,7 @@
         <v>16.190000000000001</v>
       </c>
       <c r="F400" s="5">
-        <v>30.3</v>
+        <v>40.99</v>
       </c>
       <c r="G400" t="s">
         <v>12</v>
@@ -9680,7 +9680,7 @@
         <v>639.99</v>
       </c>
       <c r="F401" s="5">
-        <v>712</v>
+        <v>795.05</v>
       </c>
       <c r="G401" t="s">
         <v>12</v>
@@ -9703,7 +9703,7 @@
         <v>562.47</v>
       </c>
       <c r="F402" s="5">
-        <v>619.79</v>
+        <v>715.63</v>
       </c>
       <c r="G402" t="s">
         <v>12</v>
@@ -9726,7 +9726,7 @@
         <v>568.55999999999995</v>
       </c>
       <c r="F403" s="5">
-        <v>669.1</v>
+        <v>711.3</v>
       </c>
       <c r="G403" t="s">
         <v>12</v>
@@ -9749,7 +9749,7 @@
         <v>541.95000000000005</v>
       </c>
       <c r="F404" s="5">
-        <v>641.17999999999995</v>
+        <v>672.28</v>
       </c>
       <c r="G404" t="s">
         <v>12</v>
@@ -9772,7 +9772,7 @@
         <v>479.5</v>
       </c>
       <c r="F405" s="5">
-        <v>540.29999999999995</v>
+        <v>625.4</v>
       </c>
       <c r="G405" t="s">
         <v>12</v>
@@ -9795,7 +9795,7 @@
         <v>98.68</v>
       </c>
       <c r="F406" s="5">
-        <v>102.86</v>
+        <v>126.91</v>
       </c>
       <c r="G406" t="s">
         <v>12</v>
@@ -9818,7 +9818,7 @@
         <v>16.190000000000001</v>
       </c>
       <c r="F407" s="5">
-        <v>32.82</v>
+        <v>41.07</v>
       </c>
       <c r="G407" t="s">
         <v>12</v>
@@ -9841,7 +9841,7 @@
         <v>69.75</v>
       </c>
       <c r="F408" s="5">
-        <v>86.19</v>
+        <v>114.56</v>
       </c>
       <c r="G408" t="s">
         <v>12</v>
@@ -9864,7 +9864,7 @@
         <v>562.47</v>
       </c>
       <c r="F409" s="5">
-        <v>690.84</v>
+        <v>705.21</v>
       </c>
       <c r="G409" t="s">
         <v>12</v>
@@ -9887,7 +9887,7 @@
         <v>568.55999999999995</v>
       </c>
       <c r="F410" s="5">
-        <v>679.53</v>
+        <v>696.63</v>
       </c>
       <c r="G410" t="s">
         <v>12</v>
@@ -9910,7 +9910,7 @@
         <v>541.95000000000005</v>
       </c>
       <c r="F411" s="5">
-        <v>640.21</v>
+        <v>663.53</v>
       </c>
       <c r="G411" t="s">
         <v>12</v>
@@ -9933,7 +9933,7 @@
         <v>479.5</v>
       </c>
       <c r="F412" s="5">
-        <v>575.47</v>
+        <v>639.64</v>
       </c>
       <c r="G412" t="s">
         <v>12</v>
@@ -9956,7 +9956,7 @@
         <v>98.68</v>
       </c>
       <c r="F413" s="5">
-        <v>123.28</v>
+        <v>126.89</v>
       </c>
       <c r="G413" t="s">
         <v>12</v>
@@ -9979,7 +9979,7 @@
         <v>16.190000000000001</v>
       </c>
       <c r="F414" s="5">
-        <v>19.079999999999998</v>
+        <v>72.86</v>
       </c>
       <c r="G414" t="s">
         <v>12</v>
@@ -10002,7 +10002,7 @@
         <v>639.99</v>
       </c>
       <c r="F415" s="5">
-        <v>795.7</v>
+        <v>817.05</v>
       </c>
       <c r="G415" t="s">
         <v>12</v>
@@ -10025,7 +10025,7 @@
         <v>562.47</v>
       </c>
       <c r="F416" s="5">
-        <v>700.27</v>
+        <v>705.08</v>
       </c>
       <c r="G416" t="s">
         <v>12</v>
@@ -10048,7 +10048,7 @@
         <v>568.55999999999995</v>
       </c>
       <c r="F417" s="5">
-        <v>667.76</v>
+        <v>744.02</v>
       </c>
       <c r="G417" t="s">
         <v>12</v>
@@ -10071,7 +10071,7 @@
         <v>541.95000000000005</v>
       </c>
       <c r="F418" s="5">
-        <v>624.49</v>
+        <v>651.67999999999995</v>
       </c>
       <c r="G418" t="s">
         <v>12</v>
@@ -10094,7 +10094,7 @@
         <v>479.5</v>
       </c>
       <c r="F419" s="5">
-        <v>605.74</v>
+        <v>604.9</v>
       </c>
       <c r="G419" t="s">
         <v>12</v>
@@ -10117,7 +10117,7 @@
         <v>98.68</v>
       </c>
       <c r="F420" s="5">
-        <v>124.89</v>
+        <v>133.04</v>
       </c>
       <c r="G420" t="s">
         <v>12</v>
@@ -10140,7 +10140,7 @@
         <v>16.190000000000001</v>
       </c>
       <c r="F421" s="5">
-        <v>17</v>
+        <v>38.25</v>
       </c>
       <c r="G421" t="s">
         <v>12</v>
@@ -10163,7 +10163,7 @@
         <v>639.99</v>
       </c>
       <c r="F422" s="5">
-        <v>736.88</v>
+        <v>832.59</v>
       </c>
       <c r="G422" t="s">
         <v>12</v>
@@ -10186,7 +10186,7 @@
         <v>562.47</v>
       </c>
       <c r="F423" s="5">
-        <v>636.91999999999996</v>
+        <v>727.77</v>
       </c>
       <c r="G423" t="s">
         <v>12</v>
@@ -10209,7 +10209,7 @@
         <v>568.55999999999995</v>
       </c>
       <c r="F424" s="5">
-        <v>651.29</v>
+        <v>736.04</v>
       </c>
       <c r="G424" t="s">
         <v>12</v>
@@ -10232,7 +10232,7 @@
         <v>541.95000000000005</v>
       </c>
       <c r="F425" s="5">
-        <v>641.16</v>
+        <v>678.65</v>
       </c>
       <c r="G425" t="s">
         <v>12</v>
@@ -10255,7 +10255,7 @@
         <v>479.5</v>
       </c>
       <c r="F426" s="5">
-        <v>626.85</v>
+        <v>648.67999999999995</v>
       </c>
       <c r="G426" t="s">
         <v>12</v>
@@ -10278,7 +10278,7 @@
         <v>98.68</v>
       </c>
       <c r="F427" s="5">
-        <v>108.91</v>
+        <v>125.79</v>
       </c>
       <c r="G427" t="s">
         <v>12</v>
@@ -10301,7 +10301,7 @@
         <v>16.190000000000001</v>
       </c>
       <c r="F428" s="5">
-        <v>17</v>
+        <v>42.5</v>
       </c>
       <c r="G428" t="s">
         <v>12</v>
@@ -10324,7 +10324,7 @@
         <v>639.99</v>
       </c>
       <c r="F429" s="5">
-        <v>712</v>
+        <v>801.36</v>
       </c>
       <c r="G429" t="s">
         <v>12</v>
@@ -10347,7 +10347,7 @@
         <v>562.47</v>
       </c>
       <c r="F430" s="5">
-        <v>640.87</v>
+        <v>738.12</v>
       </c>
       <c r="G430" t="s">
         <v>12</v>
@@ -10370,7 +10370,7 @@
         <v>568.55999999999995</v>
       </c>
       <c r="F431" s="5">
-        <v>673.69</v>
+        <v>733.96</v>
       </c>
       <c r="G431" t="s">
         <v>12</v>
@@ -10393,7 +10393,7 @@
         <v>541.95000000000005</v>
       </c>
       <c r="F432" s="5">
-        <v>646.35</v>
+        <v>676.95</v>
       </c>
       <c r="G432" t="s">
         <v>12</v>
@@ -10416,7 +10416,7 @@
         <v>479.5</v>
       </c>
       <c r="F433" s="5">
-        <v>592.79999999999995</v>
+        <v>734.35</v>
       </c>
       <c r="G433" t="s">
         <v>12</v>
@@ -10439,7 +10439,7 @@
         <v>98.68</v>
       </c>
       <c r="F434" s="5">
-        <v>103.65</v>
+        <v>125.84</v>
       </c>
       <c r="G434" t="s">
         <v>12</v>
@@ -10462,7 +10462,7 @@
         <v>16.190000000000001</v>
       </c>
       <c r="F435" s="5">
-        <v>18.920000000000002</v>
+        <v>41.45</v>
       </c>
       <c r="G435" t="s">
         <v>12</v>
@@ -10485,7 +10485,7 @@
         <v>639.99</v>
       </c>
       <c r="F436" s="5">
-        <v>729.1</v>
+        <v>1074.45</v>
       </c>
       <c r="G436" t="s">
         <v>12</v>
@@ -10508,7 +10508,7 @@
         <v>562.47</v>
       </c>
       <c r="F437" s="5">
-        <v>672.08</v>
+        <v>784.76</v>
       </c>
       <c r="G437" t="s">
         <v>12</v>
@@ -10531,7 +10531,7 @@
         <v>568.55999999999995</v>
       </c>
       <c r="F438" s="5">
-        <v>688.05</v>
+        <v>729.95</v>
       </c>
       <c r="G438" t="s">
         <v>12</v>
@@ -10554,7 +10554,7 @@
         <v>541.95000000000005</v>
       </c>
       <c r="F439" s="5">
-        <v>658.93</v>
+        <v>691.33</v>
       </c>
       <c r="G439" t="s">
         <v>12</v>
@@ -10577,7 +10577,7 @@
         <v>479.5</v>
       </c>
       <c r="F440" s="5">
-        <v>599.17999999999995</v>
+        <v>637.4</v>
       </c>
       <c r="G440" t="s">
         <v>12</v>
@@ -10600,7 +10600,7 @@
         <v>98.68</v>
       </c>
       <c r="F441" s="5">
-        <v>110.6</v>
+        <v>119.65</v>
       </c>
       <c r="G441" t="s">
         <v>12</v>
@@ -10623,7 +10623,7 @@
         <v>16.190000000000001</v>
       </c>
       <c r="F442" s="5">
-        <v>18.12</v>
+        <v>43.44</v>
       </c>
       <c r="G442" t="s">
         <v>12</v>
@@ -10646,7 +10646,7 @@
         <v>639.99</v>
       </c>
       <c r="F443" s="5">
-        <v>778.6</v>
+        <v>837.28</v>
       </c>
       <c r="G443" t="s">
         <v>12</v>
@@ -10669,7 +10669,7 @@
         <v>562.47</v>
       </c>
       <c r="F444" s="5">
-        <v>703.18</v>
+        <v>740.52</v>
       </c>
       <c r="G444" t="s">
         <v>12</v>
@@ -10692,7 +10692,7 @@
         <v>568.55999999999995</v>
       </c>
       <c r="F445" s="5">
-        <v>680.49</v>
+        <v>730.82</v>
       </c>
       <c r="G445" t="s">
         <v>12</v>
@@ -10715,7 +10715,7 @@
         <v>541.95000000000005</v>
       </c>
       <c r="F446" s="5">
-        <v>626.24</v>
+        <v>674.73</v>
       </c>
       <c r="G446" t="s">
         <v>12</v>
@@ -10738,7 +10738,7 @@
         <v>479.5</v>
       </c>
       <c r="F447" s="5">
-        <v>616.79999999999995</v>
+        <v>607.74</v>
       </c>
       <c r="G447" t="s">
         <v>12</v>
@@ -10761,7 +10761,7 @@
         <v>98.68</v>
       </c>
       <c r="F448" s="5">
-        <v>115.43</v>
+        <v>122.41</v>
       </c>
       <c r="G448" t="s">
         <v>12</v>
@@ -10784,7 +10784,7 @@
         <v>16.190000000000001</v>
       </c>
       <c r="F449" s="5">
-        <v>17</v>
+        <v>43.48</v>
       </c>
       <c r="G449" t="s">
         <v>12</v>
@@ -10807,7 +10807,7 @@
         <v>639.99</v>
       </c>
       <c r="F450" s="5">
-        <v>770.92</v>
+        <v>799.27</v>
       </c>
       <c r="G450" t="s">
         <v>12</v>
@@ -10830,7 +10830,7 @@
         <v>562.47</v>
       </c>
       <c r="F451" s="5">
-        <v>668.09</v>
+        <v>741.39</v>
       </c>
       <c r="G451" t="s">
         <v>12</v>
@@ -10853,7 +10853,7 @@
         <v>568.55999999999995</v>
       </c>
       <c r="F452" s="5">
-        <v>670.82</v>
+        <v>732.08</v>
       </c>
       <c r="G452" t="s">
         <v>12</v>
@@ -10876,7 +10876,7 @@
         <v>541.95000000000005</v>
       </c>
       <c r="F453" s="5">
-        <v>611.15</v>
+        <v>641.66</v>
       </c>
       <c r="G453" t="s">
         <v>12</v>
@@ -10899,7 +10899,7 @@
         <v>479.5</v>
       </c>
       <c r="F454" s="5">
-        <v>630.85</v>
+        <v>669.06</v>
       </c>
       <c r="G454" t="s">
         <v>12</v>
@@ -10922,7 +10922,7 @@
         <v>98.68</v>
       </c>
       <c r="F455" s="5">
-        <v>117.7</v>
+        <v>123.2</v>
       </c>
       <c r="G455" t="s">
         <v>12</v>
@@ -10945,7 +10945,7 @@
         <v>16.190000000000001</v>
       </c>
       <c r="F456" s="5">
-        <v>17</v>
+        <v>40.82</v>
       </c>
       <c r="G456" t="s">
         <v>12</v>
@@ -10968,7 +10968,7 @@
         <v>639.99</v>
       </c>
       <c r="F457" s="5">
-        <v>712</v>
+        <v>843.58</v>
       </c>
       <c r="G457" t="s">
         <v>12</v>
@@ -10991,7 +10991,7 @@
         <v>562.47</v>
       </c>
       <c r="F458" s="5">
-        <v>651.16</v>
+        <v>746.85</v>
       </c>
       <c r="G458" t="s">
         <v>12</v>
@@ -11014,7 +11014,7 @@
         <v>568.55999999999995</v>
       </c>
       <c r="F459" s="5">
-        <v>681.99</v>
+        <v>699.4</v>
       </c>
       <c r="G459" t="s">
         <v>12</v>
@@ -11037,7 +11037,7 @@
         <v>541.95000000000005</v>
       </c>
       <c r="F460" s="5">
-        <v>666.65</v>
+        <v>726.7</v>
       </c>
       <c r="G460" t="s">
         <v>12</v>
@@ -11060,7 +11060,7 @@
         <v>479.5</v>
       </c>
       <c r="F461" s="5">
-        <v>612.6</v>
+        <v>623.28</v>
       </c>
       <c r="G461" t="s">
         <v>12</v>
@@ -11083,7 +11083,7 @@
         <v>98.68</v>
       </c>
       <c r="F462" s="5">
-        <v>114.36</v>
+        <v>124.85</v>
       </c>
       <c r="G462" t="s">
         <v>12</v>
@@ -11106,7 +11106,7 @@
         <v>16.190000000000001</v>
       </c>
       <c r="F463" s="5">
-        <v>18.86</v>
+        <v>42.22</v>
       </c>
       <c r="G463" t="s">
         <v>12</v>
@@ -11129,7 +11129,7 @@
         <v>639.99</v>
       </c>
       <c r="F464" s="5">
-        <v>723.7</v>
+        <v>1004.77</v>
       </c>
       <c r="G464" t="s">
         <v>12</v>
@@ -11152,7 +11152,7 @@
         <v>562.47</v>
       </c>
       <c r="F465" s="5">
-        <v>668.32</v>
+        <v>739.78</v>
       </c>
       <c r="G465" t="s">
         <v>12</v>
@@ -11175,7 +11175,7 @@
         <v>568.55999999999995</v>
       </c>
       <c r="F466" s="5">
-        <v>693.56</v>
+        <v>727.51</v>
       </c>
       <c r="G466" t="s">
         <v>12</v>
@@ -11198,7 +11198,7 @@
         <v>541.95000000000005</v>
       </c>
       <c r="F467" s="5">
-        <v>665.03</v>
+        <v>726.1</v>
       </c>
       <c r="G467" t="s">
         <v>12</v>
@@ -11221,7 +11221,7 @@
         <v>479.5</v>
       </c>
       <c r="F468" s="5">
-        <v>583.23</v>
+        <v>623.82000000000005</v>
       </c>
       <c r="G468" t="s">
         <v>12</v>
@@ -11244,7 +11244,7 @@
         <v>98.68</v>
       </c>
       <c r="F469" s="5">
-        <v>112.75</v>
+        <v>121.45</v>
       </c>
       <c r="G469" t="s">
         <v>12</v>
@@ -11267,7 +11267,7 @@
         <v>16.190000000000001</v>
       </c>
       <c r="F470" s="5">
-        <v>18.600000000000001</v>
+        <v>41.89</v>
       </c>
       <c r="G470" t="s">
         <v>12</v>
@@ -11290,7 +11290,7 @@
         <v>639.99</v>
       </c>
       <c r="F471" s="5">
-        <v>769.6</v>
+        <v>1004.06</v>
       </c>
       <c r="G471" t="s">
         <v>12</v>
@@ -11313,7 +11313,7 @@
         <v>562.47</v>
       </c>
       <c r="F472" s="5">
-        <v>706.21</v>
+        <v>741.36</v>
       </c>
       <c r="G472" t="s">
         <v>12</v>
@@ -11336,7 +11336,7 @@
         <v>568.55999999999995</v>
       </c>
       <c r="F473" s="5">
-        <v>685.37</v>
+        <v>750.2</v>
       </c>
       <c r="G473" t="s">
         <v>12</v>
@@ -11359,7 +11359,7 @@
         <v>541.95000000000005</v>
       </c>
       <c r="F474" s="5">
-        <v>672.79</v>
+        <v>719.51</v>
       </c>
       <c r="G474" t="s">
         <v>12</v>
@@ -11382,7 +11382,7 @@
         <v>479.5</v>
       </c>
       <c r="F475" s="5">
-        <v>586.59</v>
+        <v>639.16</v>
       </c>
       <c r="G475" t="s">
         <v>12</v>
@@ -11405,7 +11405,7 @@
         <v>98.68</v>
       </c>
       <c r="F476" s="5">
-        <v>111.88</v>
+        <v>121.41</v>
       </c>
       <c r="G476" t="s">
         <v>12</v>
@@ -11428,7 +11428,7 @@
         <v>16.190000000000001</v>
       </c>
       <c r="F477" s="5">
-        <v>17</v>
+        <v>43.55</v>
       </c>
       <c r="G477" t="s">
         <v>12</v>
@@ -11451,7 +11451,7 @@
         <v>639.99</v>
       </c>
       <c r="F478" s="5">
-        <v>782.76</v>
+        <v>1012.34</v>
       </c>
       <c r="G478" t="s">
         <v>12</v>
@@ -11474,7 +11474,7 @@
         <v>562.47</v>
       </c>
       <c r="F479" s="5">
-        <v>678.11</v>
+        <v>747.12</v>
       </c>
       <c r="G479" t="s">
         <v>12</v>
@@ -11497,7 +11497,7 @@
         <v>568.55999999999995</v>
       </c>
       <c r="F480" s="5">
-        <v>678.1</v>
+        <v>752.06</v>
       </c>
       <c r="G480" t="s">
         <v>12</v>
@@ -11520,7 +11520,7 @@
         <v>541.95000000000005</v>
       </c>
       <c r="F481" s="5">
-        <v>666.42</v>
+        <v>728.58</v>
       </c>
       <c r="G481" t="s">
         <v>12</v>
@@ -11543,7 +11543,7 @@
         <v>479.5</v>
       </c>
       <c r="F482" s="5">
-        <v>590.88</v>
+        <v>726.81</v>
       </c>
       <c r="G482" t="s">
         <v>12</v>
@@ -11566,7 +11566,7 @@
         <v>98.68</v>
       </c>
       <c r="F483" s="5">
-        <v>110.01</v>
+        <v>123.92</v>
       </c>
       <c r="G483" t="s">
         <v>12</v>
@@ -11589,7 +11589,7 @@
         <v>16.190000000000001</v>
       </c>
       <c r="F484" s="5">
-        <v>17</v>
+        <v>35.72</v>
       </c>
       <c r="G484" t="s">
         <v>12</v>
@@ -11612,7 +11612,7 @@
         <v>639.99</v>
       </c>
       <c r="F485" s="5">
-        <v>721.3</v>
+        <v>835.69</v>
       </c>
       <c r="G485" t="s">
         <v>12</v>
@@ -11635,7 +11635,7 @@
         <v>562.47</v>
       </c>
       <c r="F486" s="5">
-        <v>662.05</v>
+        <v>785.42</v>
       </c>
       <c r="G486" t="s">
         <v>12</v>
@@ -11658,7 +11658,7 @@
         <v>568.55999999999995</v>
       </c>
       <c r="F487" s="5">
-        <v>674.53</v>
+        <v>752.35</v>
       </c>
       <c r="G487" t="s">
         <v>12</v>
@@ -11681,7 +11681,7 @@
         <v>541.95000000000005</v>
       </c>
       <c r="F488" s="5">
-        <v>648.01</v>
+        <v>753.58</v>
       </c>
       <c r="G488" t="s">
         <v>12</v>
@@ -11704,7 +11704,7 @@
         <v>479.5</v>
       </c>
       <c r="F489" s="5">
-        <v>576.36</v>
+        <v>648.86</v>
       </c>
       <c r="G489" t="s">
         <v>12</v>
